--- a/jogos_2025-05-07.xlsx
+++ b/jogos_2025-05-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="254">
   <si>
     <t>Date</t>
   </si>
@@ -220,6 +220,9 @@
     <t>15:00</t>
   </si>
   <si>
+    <t>15:45</t>
+  </si>
+  <si>
     <t>16:00</t>
   </si>
   <si>
@@ -235,19 +238,22 @@
     <t>23:00</t>
   </si>
   <si>
+    <t>Ukraine Ukrainian Premier League</t>
+  </si>
+  <si>
     <t>Japan J1 League</t>
   </si>
   <si>
-    <t>Ukraine Ukrainian Premier League</t>
-  </si>
-  <si>
     <t>Nigeria NPFL</t>
   </si>
   <si>
+    <t>Bulgaria First League</t>
+  </si>
+  <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
-    <t>Bulgaria First League</t>
+    <t>Georgia Erovnuli Liga</t>
   </si>
   <si>
     <t>FYR Macedonia First Football League</t>
@@ -256,9 +262,6 @@
     <t>Czech Republic FNL</t>
   </si>
   <si>
-    <t>Georgia Erovnuli Liga</t>
-  </si>
-  <si>
     <t>Saudi Arabia Professional League</t>
   </si>
   <si>
@@ -271,6 +274,9 @@
     <t>South Africa Premier Soccer League</t>
   </si>
   <si>
+    <t>Northern Ireland NIFL Premiership</t>
+  </si>
+  <si>
     <t>Morocco Botola Pro</t>
   </si>
   <si>
@@ -280,31 +286,55 @@
     <t>South America Copa Libertadores</t>
   </si>
   <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
     <t>2025</t>
   </si>
   <si>
-    <t>2024/2025</t>
+    <t>Hirnyk</t>
   </si>
   <si>
     <t>Machida Zelvia</t>
   </si>
   <si>
-    <t>Hirnyk</t>
-  </si>
-  <si>
     <t>Shonan Bellmare</t>
   </si>
   <si>
+    <t>Lobi Stars</t>
+  </si>
+  <si>
+    <t>CSKA 1948 Sofia</t>
+  </si>
+  <si>
     <t>El Kanemi Warriors</t>
   </si>
   <si>
     <t>El Gounah</t>
   </si>
   <si>
-    <t>CSKA 1948 Sofia</t>
-  </si>
-  <si>
-    <t>Lobi Stars</t>
+    <t>Dila</t>
+  </si>
+  <si>
+    <t>Pelister</t>
+  </si>
+  <si>
+    <t>Akademija Pandev</t>
+  </si>
+  <si>
+    <t>Shkendija</t>
+  </si>
+  <si>
+    <t>Enyimba</t>
+  </si>
+  <si>
+    <t>Tikveš</t>
+  </si>
+  <si>
+    <t>Sparta Praha II</t>
+  </si>
+  <si>
+    <t>Sileks</t>
   </si>
   <si>
     <t>Rivers United</t>
@@ -313,46 +343,28 @@
     <t>Niger Tornadoes</t>
   </si>
   <si>
+    <t>Baník Ostrava U21</t>
+  </si>
+  <si>
+    <t>Heartland</t>
+  </si>
+  <si>
+    <t>Zbrojovka Brno</t>
+  </si>
+  <si>
+    <t>Bendel Insurance</t>
+  </si>
+  <si>
+    <t>Shooting Stars</t>
+  </si>
+  <si>
     <t>Katsina United</t>
   </si>
   <si>
-    <t>Akademija Pandev</t>
-  </si>
-  <si>
-    <t>Bendel Insurance</t>
-  </si>
-  <si>
-    <t>Shooting Stars</t>
-  </si>
-  <si>
-    <t>Tikveš</t>
-  </si>
-  <si>
-    <t>Enyimba</t>
-  </si>
-  <si>
-    <t>Sileks</t>
-  </si>
-  <si>
-    <t>Heartland</t>
-  </si>
-  <si>
-    <t>Zbrojovka Brno</t>
-  </si>
-  <si>
-    <t>Shkendija</t>
-  </si>
-  <si>
-    <t>Sparta Praha II</t>
-  </si>
-  <si>
-    <t>Baník Ostrava U21</t>
-  </si>
-  <si>
-    <t>Pelister</t>
-  </si>
-  <si>
-    <t>Dila</t>
+    <t>Varnsdorf</t>
+  </si>
+  <si>
+    <t>Chrudim</t>
   </si>
   <si>
     <t>Opava</t>
@@ -364,12 +376,6 @@
     <t>Vyškov</t>
   </si>
   <si>
-    <t>Varnsdorf</t>
-  </si>
-  <si>
-    <t>Chrudim</t>
-  </si>
-  <si>
     <t>Samgurali</t>
   </si>
   <si>
@@ -379,73 +385,103 @@
     <t>Al Ahli</t>
   </si>
   <si>
+    <t>Lokomotiv Sofia 1929</t>
+  </si>
+  <si>
     <t>Ikorodu City</t>
   </si>
   <si>
-    <t>Lokomotiv Sofia 1929</t>
-  </si>
-  <si>
     <t>Maribor</t>
   </si>
   <si>
+    <t>Unterhaching</t>
+  </si>
+  <si>
+    <t>Ismaily SC</t>
+  </si>
+  <si>
     <t>Dinamo Batumi</t>
   </si>
   <si>
-    <t>Unterhaching</t>
-  </si>
-  <si>
-    <t>Ismaily SC</t>
-  </si>
-  <si>
     <t>Mamelodi Sundowns</t>
   </si>
   <si>
     <t>Al Nassr</t>
   </si>
   <si>
+    <t>Glentoran</t>
+  </si>
+  <si>
+    <t>Coleraine</t>
+  </si>
+  <si>
     <t>RSB Berkane</t>
   </si>
   <si>
     <t>PSG</t>
   </si>
   <si>
+    <t>Deportivo Táchira</t>
+  </si>
+  <si>
     <t>Bahia</t>
   </si>
   <si>
-    <t>Deportivo Táchira</t>
-  </si>
-  <si>
     <t>Universidad Chile</t>
   </si>
   <si>
+    <t>Central Córdoba SdE</t>
+  </si>
+  <si>
     <t>Cerro Porteño</t>
   </si>
   <si>
-    <t>Central Córdoba SdE</t>
-  </si>
-  <si>
     <t>Sporting Cristal</t>
   </si>
   <si>
+    <t>Livyi Bereh</t>
+  </si>
+  <si>
     <t>Kyoto Sanga</t>
   </si>
   <si>
-    <t>Livyi Bereh</t>
-  </si>
-  <si>
     <t>Sanfrecce Hiroshima</t>
   </si>
   <si>
+    <t>Nasarawa United</t>
+  </si>
+  <si>
+    <t>Hebar 1918</t>
+  </si>
+  <si>
     <t>Remo Stars</t>
   </si>
   <si>
     <t>Coca-Cola</t>
   </si>
   <si>
-    <t>Hebar 1918</t>
-  </si>
-  <si>
-    <t>Nasarawa United</t>
+    <t>Torpedo Kutaisi</t>
+  </si>
+  <si>
+    <t>Voska Sport</t>
+  </si>
+  <si>
+    <t>Shkupi</t>
+  </si>
+  <si>
+    <t>Rabotnički</t>
+  </si>
+  <si>
+    <t>Kwara United</t>
+  </si>
+  <si>
+    <t>Besa Dobërdoll</t>
+  </si>
+  <si>
+    <t>Sigma Olomouc II</t>
+  </si>
+  <si>
+    <t>KF Gostivari</t>
   </si>
   <si>
     <t>Enugu Rangers</t>
@@ -454,46 +490,28 @@
     <t>Abia Warriors</t>
   </si>
   <si>
+    <t>Slavia Praha U21</t>
+  </si>
+  <si>
+    <t>Plateau United</t>
+  </si>
+  <si>
+    <t>Viktoria Žižkov</t>
+  </si>
+  <si>
+    <t>Akwa United</t>
+  </si>
+  <si>
+    <t>Sunshine Stars</t>
+  </si>
+  <si>
     <t>Kano Pillars</t>
   </si>
   <si>
-    <t>Shkupi</t>
-  </si>
-  <si>
-    <t>Akwa United</t>
-  </si>
-  <si>
-    <t>Sunshine Stars</t>
-  </si>
-  <si>
-    <t>Besa Dobërdoll</t>
-  </si>
-  <si>
-    <t>Kwara United</t>
-  </si>
-  <si>
-    <t>KF Gostivari</t>
-  </si>
-  <si>
-    <t>Plateau United</t>
-  </si>
-  <si>
-    <t>Viktoria Žižkov</t>
-  </si>
-  <si>
-    <t>Rabotnički</t>
-  </si>
-  <si>
-    <t>Sigma Olomouc II</t>
-  </si>
-  <si>
-    <t>Slavia Praha U21</t>
-  </si>
-  <si>
-    <t>Voska Sport</t>
-  </si>
-  <si>
-    <t>Torpedo Kutaisi</t>
+    <t>Vysočina Jihlava</t>
+  </si>
+  <si>
+    <t>Prostějov</t>
   </si>
   <si>
     <t>Zlín</t>
@@ -505,12 +523,6 @@
     <t>Líšeň</t>
   </si>
   <si>
-    <t>Vysočina Jihlava</t>
-  </si>
-  <si>
-    <t>Prostějov</t>
-  </si>
-  <si>
     <t>Gagra</t>
   </si>
   <si>
@@ -520,64 +532,250 @@
     <t>Al Taawon</t>
   </si>
   <si>
+    <t>Botev Vratsa</t>
+  </si>
+  <si>
     <t>Bayelsa United</t>
   </si>
   <si>
-    <t>Botev Vratsa</t>
-  </si>
-  <si>
     <t>Celje</t>
   </si>
   <si>
+    <t>Hansa Rostock</t>
+  </si>
+  <si>
+    <t>ENPPI</t>
+  </si>
+  <si>
     <t>Saburtalo</t>
   </si>
   <si>
-    <t>Hansa Rostock</t>
-  </si>
-  <si>
-    <t>ENPPI</t>
-  </si>
-  <si>
     <t>Chippa United</t>
   </si>
   <si>
     <t>Al Ittihad</t>
   </si>
   <si>
+    <t>Cliftonville</t>
+  </si>
+  <si>
+    <t>Crusaders</t>
+  </si>
+  <si>
     <t>Chabab Mohammedia</t>
   </si>
   <si>
     <t>Arsenal</t>
   </si>
   <si>
+    <t>LDU Quito</t>
+  </si>
+  <si>
     <t>Nacional</t>
   </si>
   <si>
-    <t>LDU Quito</t>
-  </si>
-  <si>
     <t>Estudiantes</t>
   </si>
   <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
     <t>Palmeiras</t>
   </si>
   <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
     <t>Bolívar</t>
   </si>
   <si>
-    <t>incomplete</t>
-  </si>
-  <si>
-    <t>suspended</t>
-  </si>
-  <si>
-    <t>canceled</t>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>['27', '47', '69', '90']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
   <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['61', '67']</t>
+  </si>
+  <si>
+    <t>['-1', '-1', '-1']</t>
+  </si>
+  <si>
+    <t>['28', '78', '90', '90+4']</t>
+  </si>
+  <si>
+    <t>['6', '33']</t>
+  </si>
+  <si>
+    <t>['21', '45']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['58', '74', '77']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['17', '78']</t>
+  </si>
+  <si>
+    <t>['15', '34', '39', '90']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['26', '41']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['45+3', '68', '90+9']</t>
+  </si>
+  <si>
+    <t>['10', '31']</t>
+  </si>
+  <si>
+    <t>['33', '35', '90+6']</t>
+  </si>
+  <si>
+    <t>['2', '19', '52']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['-1', '-1']</t>
+  </si>
+  <si>
+    <t>['29', '40', '81']</t>
+  </si>
+  <si>
+    <t>['3', '37']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['27', '72']</t>
+  </si>
+  <si>
+    <t>['67', '90+5']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['5', '48']</t>
+  </si>
+  <si>
+    <t>['72', '90+5']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['47', '58']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>['-1']</t>
+  </si>
+  <si>
+    <t>['32', '45', '76']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['39', '70', '86']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['14', '28']</t>
+  </si>
+  <si>
+    <t>['31', '50', '77']</t>
+  </si>
+  <si>
+    <t>['17', '52', '82']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['32', '41', '59', '66', '78']</t>
+  </si>
+  <si>
+    <t>['11', '26']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['3', '74']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['49', '52', '90+4']</t>
+  </si>
+  <si>
+    <t>['87', '90+3']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['16', '19', '54']</t>
+  </si>
+  <si>
+    <t>['57', '69', '86']</t>
+  </si>
+  <si>
+    <t>['22', '31', '39']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['41', '90+4']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -941,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD48"/>
+  <dimension ref="A1:BD50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1125,151 +1323,151 @@
         <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L2">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="M2">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>3.68</v>
+        <v>6.5</v>
       </c>
       <c r="O2">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="Q2">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="R2">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S2">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T2">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U2">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W2">
         <v>1.06</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB2">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="AC2">
+        <v>1.68</v>
+      </c>
+      <c r="AD2">
+        <v>4.7</v>
+      </c>
+      <c r="AE2">
+        <v>1.17</v>
+      </c>
+      <c r="AF2">
+        <v>2.38</v>
+      </c>
+      <c r="AG2">
+        <v>1.53</v>
+      </c>
+      <c r="AH2">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>1.05</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL2">
+        <v>1.15</v>
+      </c>
+      <c r="AM2">
+        <v>1.27</v>
+      </c>
+      <c r="AN2">
+        <v>2.2</v>
+      </c>
+      <c r="AO2">
+        <v>7</v>
+      </c>
+      <c r="AP2">
+        <v>1.37</v>
+      </c>
+      <c r="AQ2">
+        <v>1.69</v>
+      </c>
+      <c r="AR2">
+        <v>2.14</v>
+      </c>
+      <c r="AS2">
+        <v>2.83</v>
+      </c>
+      <c r="AT2">
+        <v>4</v>
+      </c>
+      <c r="AU2">
+        <v>2.75</v>
+      </c>
+      <c r="AV2">
+        <v>2.04</v>
+      </c>
+      <c r="AW2">
         <v>1.6</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>2</v>
-      </c>
-      <c r="AG2">
-        <v>1.75</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>-1</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AZ2">
         <v>0</v>
@@ -1278,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="BC2">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="BD2" s="3">
         <v>45784.29166666666</v>
@@ -1295,151 +1493,151 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L3">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="M3">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="N3">
-        <v>6.5</v>
+        <v>3.68</v>
       </c>
       <c r="O3">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="P3">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="R3">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S3">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T3">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U3">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W3">
         <v>1.06</v>
       </c>
       <c r="X3">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>1.5</v>
       </c>
       <c r="AA3">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AB3">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="AC3">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AD3">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="AG3">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AH3">
-        <v>8.539999999999999</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="AK3" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="AL3">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AP3">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1448,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="BC3">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="BD3" s="3">
         <v>45784.29166666666</v>
@@ -1465,31 +1663,31 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L4">
         <v>3.86</v>
@@ -1564,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK4" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -1579,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1635,118 +1833,118 @@
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AJ5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AK5" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AO5">
         <v>-1</v>
@@ -1788,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BD5" s="3">
         <v>45784.45833333334</v>
@@ -1805,16 +2003,16 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1829,139 +2027,139 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="N6">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>2.5</v>
+        <v>1.28</v>
       </c>
       <c r="P6">
-        <v>4.75</v>
+        <v>14.25</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="R6">
+        <v>1.25</v>
+      </c>
+      <c r="S6">
+        <v>3.4</v>
+      </c>
+      <c r="T6">
+        <v>2.25</v>
+      </c>
+      <c r="U6">
+        <v>1.55</v>
+      </c>
+      <c r="V6">
+        <v>4.8</v>
+      </c>
+      <c r="W6">
+        <v>1.13</v>
+      </c>
+      <c r="X6">
+        <v>1.04</v>
+      </c>
+      <c r="Y6">
+        <v>13</v>
+      </c>
+      <c r="Z6">
+        <v>1.2</v>
+      </c>
+      <c r="AA6">
+        <v>4.2</v>
+      </c>
+      <c r="AB6">
+        <v>1.65</v>
+      </c>
+      <c r="AC6">
+        <v>2.05</v>
+      </c>
+      <c r="AD6">
+        <v>2.75</v>
+      </c>
+      <c r="AE6">
+        <v>1.4</v>
+      </c>
+      <c r="AF6">
+        <v>2.1</v>
+      </c>
+      <c r="AG6">
         <v>1.7</v>
       </c>
-      <c r="S6">
-        <v>1.97</v>
-      </c>
-      <c r="T6">
-        <v>4.2</v>
-      </c>
-      <c r="U6">
+      <c r="AH6">
+        <v>5</v>
+      </c>
+      <c r="AI6">
         <v>1.17</v>
       </c>
-      <c r="V6">
-        <v>15</v>
-      </c>
-      <c r="W6">
-        <v>1.03</v>
-      </c>
-      <c r="X6">
+      <c r="AJ6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL6">
+        <v>1.17</v>
+      </c>
+      <c r="AM6">
         <v>1.16</v>
       </c>
-      <c r="Y6">
-        <v>4.4</v>
-      </c>
-      <c r="Z6">
-        <v>1.7</v>
-      </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-      <c r="AB6">
-        <v>3.3</v>
-      </c>
-      <c r="AC6">
+      <c r="AN6">
+        <v>3.4</v>
+      </c>
+      <c r="AO6">
+        <v>13</v>
+      </c>
+      <c r="AP6">
+        <v>1.25</v>
+      </c>
+      <c r="AQ6">
+        <v>1.48</v>
+      </c>
+      <c r="AR6">
+        <v>2.01</v>
+      </c>
+      <c r="AS6">
+        <v>2.25</v>
+      </c>
+      <c r="AT6">
+        <v>2.83</v>
+      </c>
+      <c r="AU6">
+        <v>3.38</v>
+      </c>
+      <c r="AV6">
+        <v>2.48</v>
+      </c>
+      <c r="AW6">
+        <v>1.96</v>
+      </c>
+      <c r="AX6">
+        <v>1.6</v>
+      </c>
+      <c r="AY6">
+        <v>1.37</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
         <v>1.28</v>
       </c>
-      <c r="AD6">
-        <v>6.5</v>
-      </c>
-      <c r="AE6">
-        <v>1.07</v>
-      </c>
-      <c r="AF6">
-        <v>2.4</v>
-      </c>
-      <c r="AG6">
-        <v>1.47</v>
-      </c>
-      <c r="AH6">
-        <v>11</v>
-      </c>
-      <c r="AI6">
-        <v>1.02</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL6">
-        <v>1.32</v>
-      </c>
-      <c r="AM6">
-        <v>1.43</v>
-      </c>
-      <c r="AN6">
-        <v>1.28</v>
-      </c>
-      <c r="AO6">
-        <v>-1</v>
-      </c>
-      <c r="AP6">
-        <v>1.34</v>
-      </c>
-      <c r="AQ6">
-        <v>1.7</v>
-      </c>
-      <c r="AR6">
-        <v>2.1</v>
-      </c>
-      <c r="AS6">
-        <v>2.75</v>
-      </c>
-      <c r="AT6">
-        <v>3.6</v>
-      </c>
-      <c r="AU6">
-        <v>2.62</v>
-      </c>
-      <c r="AV6">
-        <v>2.06</v>
-      </c>
-      <c r="AW6">
-        <v>1.65</v>
-      </c>
-      <c r="AX6">
-        <v>1.4</v>
-      </c>
-      <c r="AY6">
-        <v>1.25</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>2.5</v>
-      </c>
       <c r="BC6">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="BD6" s="3">
         <v>45784.45833333334</v>
@@ -1975,19 +2173,19 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1999,127 +2197,127 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L7">
-        <v>1.28</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>3.23</v>
       </c>
       <c r="N7">
-        <v>6.9</v>
+        <v>3.45</v>
       </c>
       <c r="O7">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="P7">
-        <v>14.25</v>
+        <v>7.3</v>
       </c>
       <c r="Q7">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="R7">
+        <v>1.48</v>
+      </c>
+      <c r="S7">
+        <v>2.25</v>
+      </c>
+      <c r="T7">
+        <v>3.5</v>
+      </c>
+      <c r="U7">
+        <v>1.24</v>
+      </c>
+      <c r="V7">
+        <v>3.4</v>
+      </c>
+      <c r="W7">
+        <v>1.27</v>
+      </c>
+      <c r="X7">
+        <v>1.03</v>
+      </c>
+      <c r="Y7">
+        <v>7.3</v>
+      </c>
+      <c r="Z7">
+        <v>1.38</v>
+      </c>
+      <c r="AA7">
+        <v>2.68</v>
+      </c>
+      <c r="AB7">
+        <v>2.4</v>
+      </c>
+      <c r="AC7">
+        <v>1.5</v>
+      </c>
+      <c r="AD7">
+        <v>2.05</v>
+      </c>
+      <c r="AE7">
+        <v>1.65</v>
+      </c>
+      <c r="AF7">
+        <v>2.35</v>
+      </c>
+      <c r="AG7">
+        <v>1.5</v>
+      </c>
+      <c r="AH7">
+        <v>2.91</v>
+      </c>
+      <c r="AI7">
         <v>1.3</v>
       </c>
-      <c r="S7">
-        <v>3.25</v>
-      </c>
-      <c r="T7">
-        <v>2.38</v>
-      </c>
-      <c r="U7">
-        <v>1.53</v>
-      </c>
-      <c r="V7">
-        <v>5.6</v>
-      </c>
-      <c r="W7">
-        <v>1.1</v>
-      </c>
-      <c r="X7">
-        <v>1.02</v>
-      </c>
-      <c r="Y7">
-        <v>12.5</v>
-      </c>
-      <c r="Z7">
-        <v>1.2</v>
-      </c>
-      <c r="AA7">
-        <v>4.2</v>
-      </c>
-      <c r="AB7">
-        <v>1.65</v>
-      </c>
-      <c r="AC7">
-        <v>2.15</v>
-      </c>
-      <c r="AD7">
-        <v>2.62</v>
-      </c>
-      <c r="AE7">
-        <v>1.45</v>
-      </c>
-      <c r="AF7">
-        <v>2.01</v>
-      </c>
-      <c r="AG7">
-        <v>1.79</v>
-      </c>
-      <c r="AH7">
-        <v>5.25</v>
-      </c>
-      <c r="AI7">
-        <v>1.14</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AK7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL7">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="AM7">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AN7">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
       <c r="AO7">
         <v>-1</v>
       </c>
       <c r="AP7">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>2.01</v>
+        <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="AU7">
-        <v>3.38</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AY7">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
         <v>0</v>
@@ -2128,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="BC7">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="BD7" s="3">
         <v>45784.45833333334</v>
@@ -2145,22 +2343,22 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2169,127 +2367,127 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK8" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AO8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2298,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD8" s="3">
         <v>45784.45833333334</v>
@@ -2315,22 +2513,22 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2339,94 +2537,94 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AJ9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK9" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO9">
         <v>-1</v>
@@ -2468,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BD9" s="3">
         <v>45784.5</v>
@@ -2485,19 +2683,19 @@
         <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2509,16 +2707,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L10">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>4.33</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2560,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -2584,10 +2782,10 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AK10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -2655,133 +2853,133 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AJ11" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AK11" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AO11">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AP11">
         <v>0</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -2790,13 +2988,13 @@
         <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AY11">
         <v>0</v>
@@ -2808,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC11">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BD11" s="3">
         <v>45784.5</v>
@@ -2825,133 +3023,133 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AJ12" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AK12" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AO12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AP12">
         <v>0</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -2960,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AY12">
         <v>0</v>
@@ -2978,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BC12">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="BD12" s="3">
         <v>45784.5</v>
@@ -2995,31 +3193,31 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3094,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="AK13" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -3165,133 +3363,133 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AJ14" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="AK14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AO14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AP14">
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AT14">
         <v>0</v>
@@ -3300,13 +3498,13 @@
         <v>0</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -3318,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="BD14" s="3">
         <v>45784.5</v>
@@ -3335,19 +3533,19 @@
         <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -3359,127 +3557,127 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AJ15" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="AK15" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AM15">
         <v>0</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AO15">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AZ15">
         <v>0</v>
@@ -3488,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="BB15">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BC15">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BD15" s="3">
         <v>45784.5</v>
@@ -3505,19 +3703,19 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3529,94 +3727,94 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AJ16" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AK16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AO16">
         <v>-1</v>
@@ -3658,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="BB16">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BC16">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BD16" s="3">
         <v>45784.5</v>
@@ -3675,118 +3873,118 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AJ17" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AK17" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AO17">
         <v>-1</v>
@@ -3828,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>5.35</v>
       </c>
       <c r="BD17" s="3">
         <v>45784.5</v>
@@ -3845,22 +4043,22 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3869,97 +4067,97 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AJ18" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="AK18" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AM18">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -3998,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BC18">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BD18" s="3">
         <v>45784.5</v>
@@ -4015,151 +4213,151 @@
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L19">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="N19">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R19">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>3.11</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="V19">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="W19">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AB19">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="AC19">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF19">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AG19">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AJ19" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK19" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AM19">
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AO19">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AU19">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AX19">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AY19">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -4168,10 +4366,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BC19">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BD19" s="3">
         <v>45784.5</v>
@@ -4185,118 +4383,118 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AJ20" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="AK20" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO20">
         <v>-1</v>
@@ -4338,10 +4536,10 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="BD20" s="3">
         <v>45784.5</v>
@@ -4355,151 +4553,151 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L21">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="M21">
-        <v>3.98</v>
+        <v>3.75</v>
       </c>
       <c r="N21">
-        <v>6.44</v>
+        <v>4.85</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R21">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="U21">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="V21">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="W21">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AB21">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="AC21">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF21">
+        <v>1.74</v>
+      </c>
+      <c r="AG21">
         <v>2.1</v>
       </c>
-      <c r="AG21">
-        <v>1.67</v>
-      </c>
       <c r="AH21">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AJ21" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="AK21" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AM21">
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AO21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AS21">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AT21">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AU21">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AV21">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="AW21">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AX21">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AY21">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AZ21">
         <v>0</v>
@@ -4508,10 +4706,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BD21" s="3">
         <v>45784.5</v>
@@ -4525,19 +4723,19 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -4549,139 +4747,139 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L22">
-        <v>2.27</v>
+        <v>2.24</v>
       </c>
       <c r="M22">
-        <v>3.16</v>
+        <v>3.28</v>
       </c>
       <c r="N22">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R22">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="T22">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="U22">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="V22">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AB22">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AC22">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF22">
+        <v>2.03</v>
+      </c>
+      <c r="AG22">
+        <v>1.67</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL22">
+        <v>1.27</v>
+      </c>
+      <c r="AM22">
+        <v>1.22</v>
+      </c>
+      <c r="AN22">
+        <v>1.42</v>
+      </c>
+      <c r="AO22">
+        <v>12</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
         <v>1.73</v>
       </c>
-      <c r="AG22">
-        <v>2</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>-1</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
-      </c>
-      <c r="AS22">
-        <v>0</v>
-      </c>
-      <c r="AT22">
-        <v>0</v>
-      </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
-      </c>
-      <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
       <c r="BC22">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BD22" s="3">
         <v>45784.5</v>
@@ -4695,19 +4893,19 @@
         <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -4719,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4794,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AK23" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -4865,118 +5063,118 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L24">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="AK24" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL24">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO24">
         <v>-1</v>
@@ -5018,10 +5216,10 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BC24">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="3">
         <v>45784.5</v>
@@ -5035,151 +5233,151 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AJ25" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="AK25" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AM25">
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AO25">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AZ25">
         <v>0</v>
@@ -5188,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BD25" s="3">
         <v>45784.52083333334</v>
@@ -5205,151 +5403,151 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AJ26" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="AK26" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AO26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AR26">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AU26">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AV26">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AW26">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AX26">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AY26">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -5358,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="BD26" s="3">
         <v>45784.52083333334</v>
@@ -5375,151 +5573,151 @@
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AJ27" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK27" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AM27">
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AO27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -5528,10 +5726,10 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD27" s="3">
         <v>45784.52083333334</v>
@@ -5545,151 +5743,151 @@
         <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AJ28" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AM28">
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AO28">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AR28">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AS28">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AU28">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AX28">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AY28">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AZ28">
         <v>0</v>
@@ -5698,10 +5896,10 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BD28" s="3">
         <v>45784.52083333334</v>
@@ -5715,22 +5913,22 @@
         <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5739,127 +5937,127 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AJ29" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK29" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AM29">
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AO29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AU29">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AV29">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AW29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AY29">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AZ29">
         <v>0</v>
@@ -5868,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BC29">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BD29" s="3">
         <v>45784.52083333334</v>
@@ -5885,22 +6083,22 @@
         <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5909,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L30">
         <v>1.77</v>
@@ -5960,10 +6158,10 @@
         <v>3.1</v>
       </c>
       <c r="AB30">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AC30">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AD30">
         <v>4.1</v>
@@ -5984,10 +6182,10 @@
         <v>1.07</v>
       </c>
       <c r="AJ30" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK30" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="AL30">
         <v>1.17</v>
@@ -5999,7 +6197,7 @@
         <v>1.91</v>
       </c>
       <c r="AO30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AP30">
         <v>0</v>
@@ -6055,31 +6253,31 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L31">
         <v>9.539999999999999</v>
@@ -6154,10 +6352,10 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="AK31" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -6169,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="AO31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AP31">
         <v>0</v>
@@ -6225,31 +6423,31 @@
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L32">
         <v>1.28</v>
@@ -6324,10 +6522,10 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="AK32" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL32">
         <v>0</v>
@@ -6339,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="AO32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AP32">
         <v>0</v>
@@ -6395,151 +6593,151 @@
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AJ33" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AK33" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AO33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AP33">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AQ33">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AR33">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AS33">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AT33">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AU33">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AV33">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AW33">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AX33">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AY33">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AZ33">
         <v>0</v>
@@ -6548,10 +6746,10 @@
         <v>0</v>
       </c>
       <c r="BB33">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="BC33">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BD33" s="3">
         <v>45784.5625</v>
@@ -6565,151 +6763,151 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L34">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="M34">
-        <v>3.55</v>
+        <v>4.15</v>
       </c>
       <c r="N34">
-        <v>4.6</v>
+        <v>7.1</v>
       </c>
       <c r="O34">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="P34">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="Q34">
-        <v>2.88</v>
+        <v>4.35</v>
       </c>
       <c r="R34">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S34">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="T34">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="V34">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="W34">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="X34">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="Y34">
         <v>8.5</v>
       </c>
       <c r="Z34">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AA34">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB34">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AC34">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AD34">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AE34">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF34">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="AG34">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AH34">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AI34">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AJ34" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="AK34" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="AL34">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AM34">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>2.65</v>
       </c>
       <c r="AO34">
         <v>-1</v>
       </c>
       <c r="AP34">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AR34">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AT34">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AU34">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="AV34">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="AW34">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AX34">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AY34">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AZ34">
         <v>0</v>
@@ -6718,10 +6916,10 @@
         <v>0</v>
       </c>
       <c r="BB34">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="BC34">
-        <v>2.88</v>
+        <v>4.35</v>
       </c>
       <c r="BD34" s="3">
         <v>45784.5625</v>
@@ -6735,31 +6933,31 @@
         <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L35">
         <v>2.34</v>
@@ -6834,10 +7032,10 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="AK35" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="AL35">
         <v>0</v>
@@ -6849,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="AO35">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AP35">
         <v>0</v>
@@ -6905,151 +7103,151 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L36">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="N36">
-        <v>2.75</v>
+        <v>1.88</v>
       </c>
       <c r="O36">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="P36">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="Q36">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="R36">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="S36">
-        <v>2.62</v>
+        <v>2.87</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="U36">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="V36">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="W36">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="X36">
         <v>1.02</v>
       </c>
       <c r="Y36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z36">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AA36">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AB36">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="AC36">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="AD36">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="AE36">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AF36">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AG36">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AH36">
-        <v>6.75</v>
+        <v>5.3</v>
       </c>
       <c r="AI36">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="AJ36" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK36" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="AL36">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AM36">
+        <v>1.28</v>
+      </c>
+      <c r="AN36">
+        <v>1.24</v>
+      </c>
+      <c r="AO36">
+        <v>4</v>
+      </c>
+      <c r="AP36">
+        <v>1.18</v>
+      </c>
+      <c r="AQ36">
         <v>1.35</v>
       </c>
-      <c r="AN36">
-        <v>1.44</v>
-      </c>
-      <c r="AO36">
-        <v>-1</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
       <c r="AR36">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AS36">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AT36">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AU36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV36">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AW36">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AX36">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AY36">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AZ36">
         <v>0</v>
@@ -7058,10 +7256,10 @@
         <v>0</v>
       </c>
       <c r="BB36">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="BC36">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="BD36" s="3">
         <v>45784.58333333334</v>
@@ -7075,22 +7273,22 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -7099,127 +7297,127 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="M37">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="N37">
-        <v>1.88</v>
+        <v>2.8</v>
       </c>
       <c r="O37">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="P37">
-        <v>9.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q37">
-        <v>1.63</v>
+        <v>2.4</v>
       </c>
       <c r="R37">
-        <v>1.36</v>
+        <v>1.93</v>
       </c>
       <c r="S37">
-        <v>2.87</v>
+        <v>1.89</v>
       </c>
       <c r="T37">
-        <v>2.6</v>
+        <v>4.8</v>
       </c>
       <c r="U37">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="V37">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="W37">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="Y37">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="Z37">
+        <v>1.99</v>
+      </c>
+      <c r="AA37">
+        <v>1.83</v>
+      </c>
+      <c r="AB37">
+        <v>3.8</v>
+      </c>
+      <c r="AC37">
+        <v>1.22</v>
+      </c>
+      <c r="AD37">
+        <v>7.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.05</v>
+      </c>
+      <c r="AF37">
+        <v>2.65</v>
+      </c>
+      <c r="AG37">
+        <v>1.42</v>
+      </c>
+      <c r="AH37">
+        <v>12</v>
+      </c>
+      <c r="AI37">
+        <v>1.01</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL37">
+        <v>1.52</v>
+      </c>
+      <c r="AM37">
+        <v>1.42</v>
+      </c>
+      <c r="AN37">
+        <v>1.32</v>
+      </c>
+      <c r="AO37">
+        <v>14</v>
+      </c>
+      <c r="AP37">
+        <v>1.57</v>
+      </c>
+      <c r="AQ37">
+        <v>1.91</v>
+      </c>
+      <c r="AR37">
+        <v>2.54</v>
+      </c>
+      <c r="AS37">
+        <v>3.35</v>
+      </c>
+      <c r="AT37">
+        <v>4.6</v>
+      </c>
+      <c r="AU37">
+        <v>2.25</v>
+      </c>
+      <c r="AV37">
+        <v>1.8</v>
+      </c>
+      <c r="AW37">
+        <v>1.5</v>
+      </c>
+      <c r="AX37">
         <v>1.26</v>
       </c>
-      <c r="AA37">
-        <v>3.5</v>
-      </c>
-      <c r="AB37">
-        <v>1.81</v>
-      </c>
-      <c r="AC37">
-        <v>1.93</v>
-      </c>
-      <c r="AD37">
-        <v>2.95</v>
-      </c>
-      <c r="AE37">
-        <v>1.36</v>
-      </c>
-      <c r="AF37">
-        <v>1.71</v>
-      </c>
-      <c r="AG37">
-        <v>2</v>
-      </c>
-      <c r="AH37">
-        <v>5.3</v>
-      </c>
-      <c r="AI37">
-        <v>1.09</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL37">
-        <v>1.87</v>
-      </c>
-      <c r="AM37">
-        <v>1.28</v>
-      </c>
-      <c r="AN37">
-        <v>1.24</v>
-      </c>
-      <c r="AO37">
-        <v>-1</v>
-      </c>
-      <c r="AP37">
-        <v>1.18</v>
-      </c>
-      <c r="AQ37">
-        <v>1.35</v>
-      </c>
-      <c r="AR37">
-        <v>1.68</v>
-      </c>
-      <c r="AS37">
-        <v>2.12</v>
-      </c>
-      <c r="AT37">
-        <v>2.48</v>
-      </c>
-      <c r="AU37">
-        <v>4</v>
-      </c>
-      <c r="AV37">
-        <v>2.8</v>
-      </c>
-      <c r="AW37">
-        <v>2.14</v>
-      </c>
-      <c r="AX37">
-        <v>1.69</v>
-      </c>
       <c r="AY37">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -7228,10 +7426,10 @@
         <v>0</v>
       </c>
       <c r="BB37">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="BC37">
-        <v>1.63</v>
+        <v>2.4</v>
       </c>
       <c r="BD37" s="3">
         <v>45784.58333333334</v>
@@ -7245,22 +7443,22 @@
         <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -7269,139 +7467,139 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L38">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O38">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q38">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="R38">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="S38">
-        <v>1.97</v>
+        <v>2.62</v>
       </c>
       <c r="T38">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="V38">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="X38">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="Y38">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="Z38">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AA38">
-        <v>2.03</v>
+        <v>2.9</v>
       </c>
       <c r="AB38">
-        <v>3.51</v>
+        <v>2.15</v>
       </c>
       <c r="AC38">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="AD38">
-        <v>6.5</v>
+        <v>3.65</v>
       </c>
       <c r="AE38">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AF38">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="AG38">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="AH38">
-        <v>11</v>
+        <v>6.75</v>
       </c>
       <c r="AI38">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AJ38" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="AK38" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AL38">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AM38">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AN38">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="AO38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+      <c r="BB38">
         <v>1.91</v>
       </c>
-      <c r="AR38">
-        <v>2.4</v>
-      </c>
-      <c r="AS38">
-        <v>3.2</v>
-      </c>
-      <c r="AT38">
-        <v>4.55</v>
-      </c>
-      <c r="AU38">
-        <v>2.3</v>
-      </c>
-      <c r="AV38">
-        <v>1.8</v>
-      </c>
-      <c r="AW38">
-        <v>1.5</v>
-      </c>
-      <c r="AX38">
-        <v>1.3</v>
-      </c>
-      <c r="AY38">
-        <v>1.18</v>
-      </c>
-      <c r="AZ38">
-        <v>0</v>
-      </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>2.1</v>
-      </c>
       <c r="BC38">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="BD38" s="3">
         <v>45784.58333333334</v>
@@ -7415,31 +7613,31 @@
         <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L39">
         <v>1.27</v>
@@ -7514,10 +7712,10 @@
         <v>0</v>
       </c>
       <c r="AJ39" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AK39" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL39">
         <v>0</v>
@@ -7529,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="AO39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AP39">
         <v>0</v>
@@ -7585,31 +7783,31 @@
         <v>67</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L40">
         <v>2.18</v>
@@ -7684,10 +7882,10 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AK40" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="AL40">
         <v>0</v>
@@ -7699,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="AO40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AP40">
         <v>0</v>
@@ -7755,22 +7953,22 @@
         <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -7779,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -7854,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="AJ41" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK41" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="AL41">
         <v>0</v>
@@ -7914,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="BD41" s="3">
-        <v>45784.66666666666</v>
+        <v>45784.65625</v>
       </c>
     </row>
     <row r="42" spans="1:56">
@@ -7928,148 +8126,148 @@
         <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L42">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AJ42" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="AK42" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL42">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AM42">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AN42">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AO42">
         <v>-1</v>
       </c>
       <c r="AP42">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AT42">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AU42">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AV42">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AW42">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AX42">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AY42">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AZ42">
         <v>0</v>
@@ -8078,13 +8276,13 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BC42">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="BD42" s="3">
-        <v>45784.66666666666</v>
+        <v>45784.65625</v>
       </c>
     </row>
     <row r="43" spans="1:56">
@@ -8098,16 +8296,16 @@
         <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -8119,94 +8317,94 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L43">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="M43">
+        <v>9.83</v>
+      </c>
+      <c r="N43">
+        <v>19</v>
+      </c>
+      <c r="O43">
+        <v>1.12</v>
+      </c>
+      <c r="P43">
+        <v>21</v>
+      </c>
+      <c r="Q43">
+        <v>6.75</v>
+      </c>
+      <c r="R43">
+        <v>1.22</v>
+      </c>
+      <c r="S43">
         <v>3.8</v>
       </c>
-      <c r="N43">
-        <v>5.7</v>
-      </c>
-      <c r="O43">
-        <v>1.36</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>3.5</v>
-      </c>
-      <c r="R43">
-        <v>1.4</v>
-      </c>
-      <c r="S43">
-        <v>2.75</v>
-      </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U43">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="V43">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="W43">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AB43">
-        <v>1.91</v>
+        <v>1.35</v>
       </c>
       <c r="AC43">
-        <v>1.79</v>
+        <v>2.8</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AF43">
-        <v>2.05</v>
+        <v>2.67</v>
       </c>
       <c r="AG43">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AJ43" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="AK43" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AL43">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AN43">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AO43">
         <v>-1</v>
@@ -8248,13 +8446,13 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="BC43">
-        <v>3.5</v>
+        <v>6.75</v>
       </c>
       <c r="BD43" s="3">
-        <v>45784.79166666666</v>
+        <v>45784.66666666666</v>
       </c>
     </row>
     <row r="44" spans="1:56">
@@ -8265,166 +8463,166 @@
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L44">
-        <v>3.41</v>
+        <v>2.06</v>
       </c>
       <c r="M44">
-        <v>3.13</v>
+        <v>3.55</v>
       </c>
       <c r="N44">
-        <v>1.97</v>
+        <v>3.3</v>
       </c>
       <c r="O44">
+        <v>1.62</v>
+      </c>
+      <c r="P44">
+        <v>10.5</v>
+      </c>
+      <c r="Q44">
+        <v>2.3</v>
+      </c>
+      <c r="R44">
+        <v>1.3</v>
+      </c>
+      <c r="S44">
+        <v>3.4</v>
+      </c>
+      <c r="T44">
+        <v>2.5</v>
+      </c>
+      <c r="U44">
+        <v>1.5</v>
+      </c>
+      <c r="V44">
+        <v>6</v>
+      </c>
+      <c r="W44">
+        <v>1.13</v>
+      </c>
+      <c r="X44">
+        <v>1.04</v>
+      </c>
+      <c r="Y44">
+        <v>10</v>
+      </c>
+      <c r="Z44">
+        <v>1.22</v>
+      </c>
+      <c r="AA44">
+        <v>4</v>
+      </c>
+      <c r="AB44">
+        <v>1.73</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
+      <c r="AD44">
         <v>2.75</v>
       </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
+      <c r="AE44">
+        <v>1.44</v>
+      </c>
+      <c r="AF44">
+        <v>1.57</v>
+      </c>
+      <c r="AG44">
+        <v>2.25</v>
+      </c>
+      <c r="AH44">
+        <v>5</v>
+      </c>
+      <c r="AI44">
+        <v>1.17</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL44">
+        <v>1.31</v>
+      </c>
+      <c r="AM44">
+        <v>1.28</v>
+      </c>
+      <c r="AN44">
+        <v>1.72</v>
+      </c>
+      <c r="AO44">
+        <v>8</v>
+      </c>
+      <c r="AP44">
+        <v>1.19</v>
+      </c>
+      <c r="AQ44">
+        <v>1.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.55</v>
+      </c>
+      <c r="AS44">
+        <v>1.9</v>
+      </c>
+      <c r="AT44">
+        <v>2.33</v>
+      </c>
+      <c r="AU44">
+        <v>4.1</v>
+      </c>
+      <c r="AV44">
+        <v>2.95</v>
+      </c>
+      <c r="AW44">
+        <v>2.25</v>
+      </c>
+      <c r="AX44">
+        <v>1.79</v>
+      </c>
+      <c r="AY44">
+        <v>1.5</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
         <v>1.62</v>
       </c>
-      <c r="R44">
-        <v>1.5</v>
-      </c>
-      <c r="S44">
-        <v>2.5</v>
-      </c>
-      <c r="T44">
-        <v>3.5</v>
-      </c>
-      <c r="U44">
-        <v>1.29</v>
-      </c>
-      <c r="V44">
-        <v>10</v>
-      </c>
-      <c r="W44">
-        <v>1.06</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>1.48</v>
-      </c>
-      <c r="AA44">
-        <v>2.37</v>
-      </c>
-      <c r="AB44">
-        <v>2.26</v>
-      </c>
-      <c r="AC44">
-        <v>1.64</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>2.1</v>
-      </c>
-      <c r="AG44">
-        <v>1.67</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>187</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>-1</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AS44">
-        <v>0</v>
-      </c>
-      <c r="AT44">
-        <v>0</v>
-      </c>
-      <c r="AU44">
-        <v>0</v>
-      </c>
-      <c r="AV44">
-        <v>0</v>
-      </c>
-      <c r="AW44">
-        <v>0</v>
-      </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>0</v>
-      </c>
-      <c r="BB44">
-        <v>2.75</v>
-      </c>
       <c r="BC44">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="BD44" s="3">
-        <v>45784.79166666666</v>
+        <v>45784.66666666666</v>
       </c>
     </row>
     <row r="45" spans="1:56">
@@ -8435,55 +8633,55 @@
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L45">
-        <v>2.23</v>
+        <v>3.41</v>
       </c>
       <c r="M45">
-        <v>2.91</v>
+        <v>3.13</v>
       </c>
       <c r="N45">
-        <v>3.05</v>
+        <v>1.97</v>
       </c>
       <c r="O45">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="P45">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q45">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="R45">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S45">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T45">
         <v>3.5</v>
@@ -8492,10 +8690,10 @@
         <v>1.29</v>
       </c>
       <c r="V45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W45">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X45">
         <v>1.09</v>
@@ -8504,22 +8702,22 @@
         <v>7</v>
       </c>
       <c r="Z45">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AA45">
-        <v>2.62</v>
+        <v>2.37</v>
       </c>
       <c r="AB45">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
       <c r="AC45">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AD45">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AE45">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AF45">
         <v>2.1</v>
@@ -8534,52 +8732,52 @@
         <v>1.05</v>
       </c>
       <c r="AJ45" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="AK45" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="AL45">
+        <v>1.58</v>
+      </c>
+      <c r="AM45">
         <v>1.36</v>
       </c>
-      <c r="AM45">
-        <v>1.28</v>
-      </c>
       <c r="AN45">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AO45">
         <v>-1</v>
       </c>
       <c r="AP45">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="AQ45">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
-        <v>2.48</v>
+        <v>2.05</v>
       </c>
       <c r="AS45">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AT45">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AU45">
-        <v>2.25</v>
+        <v>2.95</v>
       </c>
       <c r="AV45">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AW45">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="AX45">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AY45">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AZ45">
         <v>0</v>
@@ -8588,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="BB45">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="BC45">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="BD45" s="3">
-        <v>45784.875</v>
+        <v>45784.79166666666</v>
       </c>
     </row>
     <row r="46" spans="1:56">
@@ -8602,25 +8800,25 @@
         <v>45784</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -8629,127 +8827,127 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L46">
-        <v>4.2</v>
+        <v>1.47</v>
       </c>
       <c r="M46">
-        <v>3.07</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="O46">
-        <v>2.88</v>
+        <v>1.36</v>
       </c>
       <c r="P46">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Q46">
-        <v>1.57</v>
+        <v>3.5</v>
       </c>
       <c r="R46">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S46">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="V46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W46">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="X46">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Y46">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="Z46">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AA46">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="AB46">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="AC46">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="AD46">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AE46">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AF46">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AG46">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AH46">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI46">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AJ46" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="AK46" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="AL46">
-        <v>1.85</v>
+        <v>1.13</v>
       </c>
       <c r="AM46">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AN46">
-        <v>1.22</v>
+        <v>2.37</v>
       </c>
       <c r="AO46">
         <v>-1</v>
       </c>
       <c r="AP46">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="AQ46">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AR46">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="AS46">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AT46">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="AU46">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="AV46">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="AW46">
         <v>1.53</v>
       </c>
       <c r="AX46">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AY46">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AZ46">
         <v>0</v>
@@ -8758,13 +8956,13 @@
         <v>0</v>
       </c>
       <c r="BB46">
-        <v>2.88</v>
+        <v>1.36</v>
       </c>
       <c r="BC46">
-        <v>1.57</v>
+        <v>3.5</v>
       </c>
       <c r="BD46" s="3">
-        <v>45784.89583333334</v>
+        <v>45784.79166666666</v>
       </c>
     </row>
     <row r="47" spans="1:56">
@@ -8775,91 +8973,91 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K47" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L47">
-        <v>5.1</v>
+        <v>2.23</v>
       </c>
       <c r="M47">
-        <v>3.45</v>
+        <v>2.91</v>
       </c>
       <c r="N47">
-        <v>1.57</v>
+        <v>3.05</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="P47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q47">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="R47">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="S47">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="T47">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U47">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V47">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W47">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="X47">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="Y47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z47">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AA47">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="AB47">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="AC47">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AD47">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="AE47">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AF47">
         <v>2.1</v>
@@ -8868,73 +9066,73 @@
         <v>1.67</v>
       </c>
       <c r="AH47">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AI47">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AJ47" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK47" t="s">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="AL47">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="AM47">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AN47">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AO47">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AP47">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AQ47">
+        <v>1.95</v>
+      </c>
+      <c r="AR47">
+        <v>2.48</v>
+      </c>
+      <c r="AS47">
+        <v>3.3</v>
+      </c>
+      <c r="AT47">
+        <v>4.4</v>
+      </c>
+      <c r="AU47">
+        <v>2.25</v>
+      </c>
+      <c r="AV47">
+        <v>1.75</v>
+      </c>
+      <c r="AW47">
+        <v>1.47</v>
+      </c>
+      <c r="AX47">
+        <v>1.27</v>
+      </c>
+      <c r="AY47">
+        <v>1.16</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+      <c r="BB47">
         <v>1.8</v>
       </c>
-      <c r="AR47">
-        <v>2.3</v>
-      </c>
-      <c r="AS47">
-        <v>2.95</v>
-      </c>
-      <c r="AT47">
-        <v>4.1</v>
-      </c>
-      <c r="AU47">
-        <v>2.43</v>
-      </c>
-      <c r="AV47">
-        <v>1.89</v>
-      </c>
-      <c r="AW47">
-        <v>1.54</v>
-      </c>
-      <c r="AX47">
-        <v>1.33</v>
-      </c>
-      <c r="AY47">
-        <v>1.19</v>
-      </c>
-      <c r="AZ47">
-        <v>0</v>
-      </c>
-      <c r="BA47">
-        <v>0</v>
-      </c>
-      <c r="BB47">
-        <v>3.4</v>
-      </c>
       <c r="BC47">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="BD47" s="3">
-        <v>45784.89583333334</v>
+        <v>45784.875</v>
       </c>
     </row>
     <row r="48" spans="1:56">
@@ -8945,165 +9143,505 @@
         <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="L48">
-        <v>1.93</v>
+        <v>5.1</v>
       </c>
       <c r="M48">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N48">
-        <v>3.17</v>
+        <v>1.57</v>
       </c>
       <c r="O48">
-        <v>1.62</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q48">
-        <v>2.3</v>
+        <v>1.44</v>
       </c>
       <c r="R48">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="S48">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U48">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="V48">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="W48">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="X48">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="Y48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z48">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AA48">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="AB48">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="AC48">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="AD48">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="AE48">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AF48">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AG48">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="AH48">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="AI48">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AJ48" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="AK48" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="AL48">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="AM48">
         <v>1.22</v>
       </c>
       <c r="AN48">
+        <v>1.14</v>
+      </c>
+      <c r="AO48">
+        <v>4</v>
+      </c>
+      <c r="AP48">
+        <v>1.48</v>
+      </c>
+      <c r="AQ48">
+        <v>1.8</v>
+      </c>
+      <c r="AR48">
+        <v>2.3</v>
+      </c>
+      <c r="AS48">
+        <v>2.95</v>
+      </c>
+      <c r="AT48">
+        <v>4.1</v>
+      </c>
+      <c r="AU48">
+        <v>2.43</v>
+      </c>
+      <c r="AV48">
+        <v>1.89</v>
+      </c>
+      <c r="AW48">
+        <v>1.54</v>
+      </c>
+      <c r="AX48">
+        <v>1.33</v>
+      </c>
+      <c r="AY48">
+        <v>1.19</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>3.4</v>
+      </c>
+      <c r="BC48">
+        <v>1.44</v>
+      </c>
+      <c r="BD48" s="3">
+        <v>45784.89583333334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:56">
+      <c r="A49" s="2">
+        <v>45784</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>190</v>
+      </c>
+      <c r="L49">
+        <v>4.2</v>
+      </c>
+      <c r="M49">
+        <v>3.07</v>
+      </c>
+      <c r="N49">
+        <v>1.8</v>
+      </c>
+      <c r="O49">
+        <v>2.88</v>
+      </c>
+      <c r="P49">
+        <v>7.5</v>
+      </c>
+      <c r="Q49">
+        <v>1.57</v>
+      </c>
+      <c r="R49">
+        <v>1.44</v>
+      </c>
+      <c r="S49">
+        <v>2.63</v>
+      </c>
+      <c r="T49">
+        <v>3.25</v>
+      </c>
+      <c r="U49">
+        <v>1.33</v>
+      </c>
+      <c r="V49">
+        <v>10</v>
+      </c>
+      <c r="W49">
+        <v>1.06</v>
+      </c>
+      <c r="X49">
+        <v>1.08</v>
+      </c>
+      <c r="Y49">
+        <v>7.5</v>
+      </c>
+      <c r="Z49">
+        <v>1.42</v>
+      </c>
+      <c r="AA49">
+        <v>2.8</v>
+      </c>
+      <c r="AB49">
+        <v>2.15</v>
+      </c>
+      <c r="AC49">
+        <v>1.57</v>
+      </c>
+      <c r="AD49">
+        <v>4.2</v>
+      </c>
+      <c r="AE49">
+        <v>1.22</v>
+      </c>
+      <c r="AF49">
+        <v>2</v>
+      </c>
+      <c r="AG49">
+        <v>1.75</v>
+      </c>
+      <c r="AH49">
+        <v>8.5</v>
+      </c>
+      <c r="AI49">
+        <v>1.06</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL49">
+        <v>1.85</v>
+      </c>
+      <c r="AM49">
+        <v>1.28</v>
+      </c>
+      <c r="AN49">
+        <v>1.22</v>
+      </c>
+      <c r="AO49">
+        <v>13</v>
+      </c>
+      <c r="AP49">
+        <v>1.48</v>
+      </c>
+      <c r="AQ49">
+        <v>1.8</v>
+      </c>
+      <c r="AR49">
+        <v>2.3</v>
+      </c>
+      <c r="AS49">
+        <v>3.05</v>
+      </c>
+      <c r="AT49">
+        <v>4</v>
+      </c>
+      <c r="AU49">
+        <v>2.43</v>
+      </c>
+      <c r="AV49">
+        <v>1.89</v>
+      </c>
+      <c r="AW49">
+        <v>1.53</v>
+      </c>
+      <c r="AX49">
+        <v>1.32</v>
+      </c>
+      <c r="AY49">
+        <v>1.18</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>2.88</v>
+      </c>
+      <c r="BC49">
+        <v>1.57</v>
+      </c>
+      <c r="BD49" s="3">
+        <v>45784.89583333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:56">
+      <c r="A50" s="2">
+        <v>45784</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" t="s">
+        <v>189</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>190</v>
+      </c>
+      <c r="L50">
+        <v>1.93</v>
+      </c>
+      <c r="M50">
+        <v>3.5</v>
+      </c>
+      <c r="N50">
+        <v>3.17</v>
+      </c>
+      <c r="O50">
+        <v>1.62</v>
+      </c>
+      <c r="P50">
+        <v>10</v>
+      </c>
+      <c r="Q50">
+        <v>2.3</v>
+      </c>
+      <c r="R50">
+        <v>1.29</v>
+      </c>
+      <c r="S50">
+        <v>3.5</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
+        <v>1.57</v>
+      </c>
+      <c r="V50">
+        <v>5.5</v>
+      </c>
+      <c r="W50">
+        <v>1.14</v>
+      </c>
+      <c r="X50">
+        <v>1.04</v>
+      </c>
+      <c r="Y50">
+        <v>10</v>
+      </c>
+      <c r="Z50">
+        <v>1.2</v>
+      </c>
+      <c r="AA50">
+        <v>4.33</v>
+      </c>
+      <c r="AB50">
+        <v>1.55</v>
+      </c>
+      <c r="AC50">
+        <v>2.2</v>
+      </c>
+      <c r="AD50">
+        <v>2.55</v>
+      </c>
+      <c r="AE50">
+        <v>1.5</v>
+      </c>
+      <c r="AF50">
+        <v>1.5</v>
+      </c>
+      <c r="AG50">
+        <v>2.5</v>
+      </c>
+      <c r="AH50">
+        <v>4.33</v>
+      </c>
+      <c r="AI50">
+        <v>1.2</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>253</v>
+      </c>
+      <c r="AL50">
+        <v>1.33</v>
+      </c>
+      <c r="AM50">
+        <v>1.22</v>
+      </c>
+      <c r="AN50">
         <v>1.7</v>
       </c>
-      <c r="AO48">
+      <c r="AO50">
         <v>-1</v>
       </c>
-      <c r="AP48">
+      <c r="AP50">
         <v>1.32</v>
       </c>
-      <c r="AQ48">
+      <c r="AQ50">
         <v>1.56</v>
       </c>
-      <c r="AR48">
+      <c r="AR50">
         <v>1.92</v>
       </c>
-      <c r="AS48">
+      <c r="AS50">
         <v>2.4</v>
       </c>
-      <c r="AT48">
+      <c r="AT50">
         <v>3.15</v>
       </c>
-      <c r="AU48">
+      <c r="AU50">
         <v>3</v>
       </c>
-      <c r="AV48">
+      <c r="AV50">
         <v>2.23</v>
       </c>
-      <c r="AW48">
+      <c r="AW50">
         <v>1.77</v>
       </c>
-      <c r="AX48">
+      <c r="AX50">
         <v>1.49</v>
       </c>
-      <c r="AY48">
+      <c r="AY50">
         <v>1.3</v>
       </c>
-      <c r="AZ48">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>0</v>
-      </c>
-      <c r="BB48">
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
         <v>1.62</v>
       </c>
-      <c r="BC48">
+      <c r="BC50">
         <v>2.3</v>
       </c>
-      <c r="BD48" s="3">
+      <c r="BD50" s="3">
         <v>45784.95833333334</v>
       </c>
     </row>
